--- a/data/bank_acc/bank_acc_2.xlsx
+++ b/data/bank_acc/bank_acc_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\bank_acc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1120A9-27EC-4A07-B1BB-6600A6B4F751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369CBB61-6C6E-426E-B295-9FF67F767F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -417,6 +417,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -699,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,691 +725,691 @@
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>-120</v>
-      </c>
-      <c r="E2">
+        <v>-700</v>
+      </c>
+      <c r="E2" s="5">
         <f>E1+D1</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45301</v>
+        <v>45293</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>-15</v>
-      </c>
-      <c r="E3">
+        <v>-110</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E66" si="0">E2+D2</f>
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45303</v>
+        <v>45294</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>-85</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4865</v>
+        <v>-130</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>4190</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45305</v>
+        <v>45296</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>-45</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>4780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>-120</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45308</v>
+        <v>45296</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>-500</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-200</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45311</v>
+        <v>45297</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>-25</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>4235</v>
+        <v>-40</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>3740</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45313</v>
+        <v>45299</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>-60</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-120</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45316</v>
+        <v>45301</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-15</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45319</v>
+        <v>45301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>-10</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>4110</v>
+        <v>-85</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>3565</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45323</v>
+        <v>45303</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-85</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45325</v>
+        <v>45303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>-200</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>-95</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45305</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>-150</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>-45</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>3300</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45329</v>
+        <v>45306</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-45</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45332</v>
+        <v>45308</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>-80</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>6700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>-500</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45336</v>
+        <v>45308</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>-500</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>6620</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-65</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45339</v>
+        <v>45309</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>-35</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>6120</v>
+        <v>-130</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>2645</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45341</v>
+        <v>45311</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>-15</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>6085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-25</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45344</v>
+        <v>45311</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>-120</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>6070</v>
+        <v>-60</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>2490</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45346</v>
+        <v>45313</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>-30</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>5950</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-60</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45348</v>
+        <v>45313</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>-110</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>5920</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-85</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45352</v>
+        <v>45316</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>5810</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-40</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45354</v>
+        <v>45316</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>-350</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>8810</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45357</v>
+        <v>45318</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>-60</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>8460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45360</v>
+        <v>45319</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>-400</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>8400</v>
+        <v>-10</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>2095</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45363</v>
+        <v>45321</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-70</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45366</v>
+        <v>45323</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>-8</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>7950</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45369</v>
+        <v>45324</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>-85</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>7942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-450</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45371</v>
+        <v>45325</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>-150</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>7857</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45374</v>
+        <v>45325</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>-15</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>7707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-70</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45377</v>
+        <v>45326</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>-95</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>7692</v>
+        <v>-160</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
+        <v>4295</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45380</v>
+        <v>45327</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="2">
-        <v>-300</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>7597</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-150</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45383</v>
+        <v>45328</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>7297</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-120</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>3985</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45386</v>
+        <v>45329</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>10297</v>
+        <v>-50</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
+        <v>3865</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45389</v>
+        <v>45329</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="2">
-        <v>-85</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>10257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45391</v>
+        <v>45332</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>10172</v>
+        <v>-80</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
+        <v>3785</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45393</v>
+        <v>45332</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="2">
-        <v>-45</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>10132</v>
+        <v>-85</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
+        <v>3705</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45396</v>
+        <v>45334</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>10087</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-60</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45398</v>
+        <v>45335</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="2">
-        <v>-220</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>10037</v>
+        <v>-40</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="0"/>
+        <v>3560</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45400</v>
+        <v>45336</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -1417,19 +1418,19 @@
         <v>3</v>
       </c>
       <c r="D40" s="2">
-        <v>-450</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>9817</v>
+        <v>-500</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="0"/>
+        <v>3520</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45403</v>
+        <v>45337</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>3</v>
@@ -1437,341 +1438,341 @@
       <c r="D41" s="2">
         <v>-35</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>9367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E41" s="5">
+        <f t="shared" si="0"/>
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45404</v>
+        <v>45339</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>150</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>9332</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>-35</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="0"/>
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45407</v>
+        <v>45339</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2">
-        <v>500</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>9482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>45454</v>
-      </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>-70</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>9982</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>45458</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>-90</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>9912</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>45461</v>
-      </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>-180</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>9822</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>45465</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>125</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>9642</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>45468</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48">
+        <v>-250</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="0"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-45</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-15</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="0"/>
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
         <v>-50</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>9767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E46" s="5">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-120</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="0"/>
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-75</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="0"/>
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45292</v>
+        <v>45346</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="2">
-        <v>-700</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>9717</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="0"/>
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45293</v>
+        <v>45346</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="2">
+        <v>-80</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="0"/>
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
         <v>-110</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>9017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>45294</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="2">
-        <v>-130</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>8907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E51" s="5">
+        <f t="shared" si="0"/>
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45296</v>
+        <v>45348</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="2">
-        <v>-200</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>8777</v>
+        <v>-115</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="0"/>
+        <v>2175</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45297</v>
+        <v>45350</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>8577</v>
+        <v>-90</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="0"/>
+        <v>2060</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45299</v>
+        <v>45352</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2">
-        <v>-120</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>8537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45301</v>
+        <v>45353</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="2">
-        <v>-85</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>8417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-40</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="0"/>
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45303</v>
+        <v>45354</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="2">
-        <v>-95</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>8332</v>
+        <v>-350</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>4930</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45306</v>
+        <v>45355</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="2">
-        <v>-45</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>8237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-180</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="0"/>
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45308</v>
+        <v>45356</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="2">
-        <v>-65</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-500</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45309</v>
+        <v>45357</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="2">
-        <v>-130</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>8127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-60</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45311</v>
+        <v>45357</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -1779,377 +1780,377 @@
       <c r="D60" s="2">
         <v>-60</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>7997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E60" s="5">
+        <f t="shared" si="0"/>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45313</v>
+        <v>45358</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="2">
-        <v>-85</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>7937</v>
+        <v>-45</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="0"/>
+        <v>3780</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45316</v>
+        <v>45360</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="2">
-        <v>-100</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>7852</v>
+        <v>-400</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="0"/>
+        <v>3735</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45318</v>
+        <v>45360</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>7752</v>
+        <v>-150</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="0"/>
+        <v>3335</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45321</v>
+        <v>45362</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="2">
-        <v>-70</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>7702</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-80</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="0"/>
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45324</v>
+        <v>45363</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="2">
-        <v>-450</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>7632</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="0"/>
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45325</v>
+        <v>45364</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="2">
-        <v>-70</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>7182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>-55</v>
+      </c>
+      <c r="E66" s="5">
+        <f t="shared" si="0"/>
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45326</v>
+        <v>45365</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="2">
-        <v>-160</v>
-      </c>
-      <c r="E67">
+        <v>-250</v>
+      </c>
+      <c r="E67" s="5">
         <f t="shared" ref="E67:E130" si="1">E66+D66</f>
-        <v>7112</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45328</v>
+        <v>45366</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="2">
+        <v>-8</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="1"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2">
+        <v>-90</v>
+      </c>
+      <c r="E69" s="5">
+        <f t="shared" si="1"/>
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2">
+        <v>-40</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="1"/>
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2">
+        <v>-80</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="1"/>
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2">
+        <v>-85</v>
+      </c>
+      <c r="E72" s="5">
+        <f t="shared" si="1"/>
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2">
         <v>-120</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>6952</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2">
-        <v>-30</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
-        <v>6832</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>45332</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="2">
-        <v>-85</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>6802</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>45334</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="2">
-        <v>-60</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>6717</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>45335</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>6657</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="2">
-        <v>-35</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
-        <v>6617</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E73" s="5">
+        <f t="shared" si="1"/>
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45339</v>
+        <v>45371</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="2">
-        <v>-250</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>6582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-150</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="1"/>
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45340</v>
+        <v>45371</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="2">
-        <v>-45</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>6332</v>
+        <v>-50</v>
+      </c>
+      <c r="E75" s="5">
+        <f t="shared" si="1"/>
+        <v>2177</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45342</v>
+        <v>45373</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>6287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-60</v>
+      </c>
+      <c r="E76" s="5">
+        <f t="shared" si="1"/>
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45344</v>
+        <v>45374</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="2">
-        <v>-75</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>6237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>-15</v>
+      </c>
+      <c r="E77" s="5">
+        <f t="shared" si="1"/>
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45346</v>
+        <v>45374</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="2">
-        <v>-80</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="1"/>
-        <v>6162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-130</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45348</v>
+        <v>45376</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2">
+        <v>-110</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="1"/>
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="2">
-        <v>-115</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="1"/>
-        <v>6082</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="2">
-        <v>-90</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="1"/>
-        <v>5967</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-95</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="1"/>
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45353</v>
+        <v>45378</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>3</v>
@@ -2157,215 +2158,215 @@
       <c r="D81" s="2">
         <v>-40</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="1"/>
-        <v>5877</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E81" s="5">
+        <f t="shared" si="1"/>
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45355</v>
+        <v>45380</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="2">
-        <v>-180</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="1"/>
-        <v>5837</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-300</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="1"/>
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45356</v>
+        <v>45381</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="2">
-        <v>-500</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="1"/>
-        <v>5657</v>
+        <v>-120</v>
+      </c>
+      <c r="E83" s="5">
+        <f t="shared" si="1"/>
+        <v>1377</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45357</v>
+        <v>45383</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="2">
-        <v>-60</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="1"/>
-        <v>5157</v>
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="1"/>
+        <v>1257</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45358</v>
+        <v>45384</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="2">
-        <v>-45</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="1"/>
-        <v>5097</v>
+        <v>-80</v>
+      </c>
+      <c r="E85" s="5">
+        <f t="shared" si="1"/>
+        <v>4257</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45360</v>
+        <v>45385</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="2">
-        <v>-150</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="1"/>
-        <v>5052</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="1"/>
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45362</v>
+        <v>45386</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="2">
-        <v>-80</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="1"/>
-        <v>4902</v>
+        <v>-40</v>
+      </c>
+      <c r="E87" s="5">
+        <f t="shared" si="1"/>
+        <v>4077</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45364</v>
+        <v>45386</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="2">
-        <v>-55</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="1"/>
-        <v>4822</v>
+        <v>-45</v>
+      </c>
+      <c r="E88" s="5">
+        <f t="shared" si="1"/>
+        <v>4037</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45365</v>
+        <v>45387</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="2">
-        <v>-250</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="1"/>
-        <v>4767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-70</v>
+      </c>
+      <c r="E89" s="5">
+        <f t="shared" si="1"/>
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45366</v>
+        <v>45388</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="2">
-        <v>-90</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="1"/>
-        <v>4517</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+      <c r="E90" s="5">
+        <f t="shared" si="1"/>
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45367</v>
+        <v>45389</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>4427</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-85</v>
+      </c>
+      <c r="E91" s="5">
+        <f t="shared" si="1"/>
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45368</v>
+        <v>45389</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="2">
-        <v>-80</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="1"/>
-        <v>4387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-60</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="1"/>
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45370</v>
+        <v>45390</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>3</v>
@@ -2373,35 +2374,35 @@
       <c r="D93" s="2">
         <v>-120</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="1"/>
-        <v>4307</v>
+      <c r="E93" s="5">
+        <f t="shared" si="1"/>
+        <v>3727</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45371</v>
+        <v>45391</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E94">
-        <f t="shared" si="1"/>
-        <v>4187</v>
+        <v>-40</v>
+      </c>
+      <c r="E94" s="5">
+        <f t="shared" si="1"/>
+        <v>3607</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45373</v>
+        <v>45392</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>3</v>
@@ -2409,786 +2410,789 @@
       <c r="D95" s="2">
         <v>-60</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="1"/>
-        <v>4137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E95" s="5">
+        <f t="shared" si="1"/>
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45374</v>
+        <v>45393</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="2">
-        <v>-130</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="1"/>
-        <v>4077</v>
+        <v>-45</v>
+      </c>
+      <c r="E96" s="5">
+        <f t="shared" si="1"/>
+        <v>3507</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45376</v>
+        <v>45394</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="2">
+        <v>-25</v>
+      </c>
+      <c r="E97" s="5">
+        <f t="shared" si="1"/>
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E98" s="5">
+        <f t="shared" si="1"/>
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2">
+        <v>-45</v>
+      </c>
+      <c r="E99" s="5">
+        <f t="shared" si="1"/>
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2">
         <v>-110</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="1"/>
-        <v>3947</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>45378</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="1"/>
-        <v>3837</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>45381</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="2">
-        <v>-120</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="1"/>
-        <v>3797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>45384</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="2">
-        <v>-80</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="1"/>
-        <v>3677</v>
+      <c r="E100" s="5">
+        <f t="shared" si="1"/>
+        <v>3342</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45385</v>
+        <v>45398</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="2">
-        <v>-100</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="1"/>
-        <v>3597</v>
+        <v>-220</v>
+      </c>
+      <c r="E101" s="5">
+        <f t="shared" si="1"/>
+        <v>3232</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45386</v>
+        <v>45399</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="2">
-        <v>-45</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="1"/>
-        <v>3497</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-90</v>
+      </c>
+      <c r="E102" s="5">
+        <f t="shared" si="1"/>
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45387</v>
+        <v>45400</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="2">
-        <v>-70</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="1"/>
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-450</v>
+      </c>
+      <c r="E103" s="5">
+        <f t="shared" si="1"/>
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45388</v>
+        <v>45400</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="2">
+        <v>-80</v>
+      </c>
+      <c r="E104" s="5">
+        <f t="shared" si="1"/>
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2">
         <v>-50</v>
       </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>45389</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="2">
-        <v>-60</v>
-      </c>
-      <c r="E105">
-        <f t="shared" si="1"/>
-        <v>3332</v>
+      <c r="E105" s="5">
+        <f t="shared" si="1"/>
+        <v>2392</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45390</v>
+        <v>45403</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="2">
-        <v>-120</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="1"/>
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-35</v>
+      </c>
+      <c r="E106" s="5">
+        <f t="shared" si="1"/>
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45392</v>
+        <v>45404</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2">
-        <v>-60</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="1"/>
-        <v>3152</v>
+        <v>150</v>
+      </c>
+      <c r="E107" s="5">
+        <f t="shared" si="1"/>
+        <v>2307</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45394</v>
+        <v>45404</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="2">
-        <v>-25</v>
-      </c>
-      <c r="E108">
-        <f t="shared" si="1"/>
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-95</v>
+      </c>
+      <c r="E108" s="5">
+        <f t="shared" si="1"/>
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45396</v>
+        <v>45405</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="2">
-        <v>-45</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="1"/>
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-35</v>
+      </c>
+      <c r="E109" s="5">
+        <f t="shared" si="1"/>
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2">
+        <v>500</v>
+      </c>
+      <c r="E110" s="5">
+        <f t="shared" si="1"/>
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-150</v>
+      </c>
+      <c r="E111" s="5">
+        <f t="shared" si="1"/>
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-40</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" si="1"/>
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="2">
-        <v>-110</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="1"/>
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="2">
-        <v>-90</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="1"/>
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>45400</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="2">
-        <v>-80</v>
-      </c>
-      <c r="E112">
-        <f t="shared" si="1"/>
-        <v>2822</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>45402</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E113">
-        <f t="shared" si="1"/>
-        <v>2742</v>
+        <v>-130</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" si="1"/>
+        <v>2637</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45404</v>
+        <v>45412</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="2">
-        <v>-95</v>
-      </c>
-      <c r="E114">
-        <f t="shared" si="1"/>
-        <v>2692</v>
+        <v>-35</v>
+      </c>
+      <c r="E114" s="5">
+        <f t="shared" si="1"/>
+        <v>2507</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45405</v>
+        <v>45414</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="2">
-        <v>-35</v>
-      </c>
-      <c r="E115">
-        <f t="shared" si="1"/>
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+      <c r="E115" s="5">
+        <f t="shared" si="1"/>
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45407</v>
+        <v>45415</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="2">
-        <v>-150</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="1"/>
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-45</v>
+      </c>
+      <c r="E116" s="5">
+        <f t="shared" si="1"/>
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45408</v>
+        <v>45417</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="1"/>
-        <v>2412</v>
+        <v>-60</v>
+      </c>
+      <c r="E117" s="5">
+        <f t="shared" si="1"/>
+        <v>2327</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45410</v>
+        <v>45418</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="2">
-        <v>-130</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="1"/>
-        <v>2372</v>
+        <v>-75</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" si="1"/>
+        <v>2267</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45412</v>
+        <v>45419</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="2">
-        <v>-35</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="1"/>
-        <v>2242</v>
+        <v>-150</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" si="1"/>
+        <v>2192</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45414</v>
+        <v>45421</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="2">
-        <v>-100</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="1"/>
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>-70</v>
+      </c>
+      <c r="E120" s="5">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45415</v>
+        <v>45423</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="2">
-        <v>-45</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="1"/>
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+      <c r="E121" s="5">
+        <f t="shared" si="1"/>
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45417</v>
+        <v>45425</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="2">
-        <v>-60</v>
-      </c>
-      <c r="E122">
-        <f t="shared" si="1"/>
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>-90</v>
+      </c>
+      <c r="E122" s="5">
+        <f t="shared" si="1"/>
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45418</v>
+        <v>45426</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="2">
-        <v>-75</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="1"/>
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+      <c r="E123" s="5">
+        <f t="shared" si="1"/>
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45419</v>
+        <v>45427</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="2">
-        <v>-150</v>
-      </c>
-      <c r="E124">
-        <f t="shared" si="1"/>
-        <v>1927</v>
+        <v>-250</v>
+      </c>
+      <c r="E124" s="5">
+        <f t="shared" si="1"/>
+        <v>1802</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45421</v>
+        <v>45429</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="2">
-        <v>-70</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="1"/>
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" si="1"/>
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45423</v>
+        <v>45430</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="2">
-        <v>-30</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="1"/>
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>-75</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" si="1"/>
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45425</v>
+        <v>45432</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="2">
-        <v>-90</v>
-      </c>
-      <c r="E127">
-        <f t="shared" si="1"/>
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+      <c r="E127" s="5">
+        <f t="shared" si="1"/>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="2">
-        <v>-50</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="1"/>
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>-35</v>
+      </c>
+      <c r="E128" s="5">
+        <f t="shared" si="1"/>
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45427</v>
+        <v>45435</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D129" s="2">
-        <v>-250</v>
-      </c>
-      <c r="E129">
-        <f t="shared" si="1"/>
-        <v>1537</v>
+        <v>-125</v>
+      </c>
+      <c r="E129" s="5">
+        <f t="shared" si="1"/>
+        <v>1292</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45429</v>
+        <v>45437</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="2">
-        <v>-100</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="1"/>
-        <v>1287</v>
+        <v>-40</v>
+      </c>
+      <c r="E130" s="5">
+        <f t="shared" si="1"/>
+        <v>1167</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45430</v>
+        <v>45438</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D131" s="2">
-        <v>-75</v>
-      </c>
-      <c r="E131">
+        <v>-30</v>
+      </c>
+      <c r="E131" s="5">
         <f t="shared" ref="E131:E138" si="2">E130+D130</f>
-        <v>1187</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45432</v>
+        <v>45440</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="2">
+        <v>-100</v>
+      </c>
+      <c r="E132" s="5">
+        <f t="shared" si="2"/>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2">
+        <v>-160</v>
+      </c>
+      <c r="E133" s="5">
+        <f t="shared" si="2"/>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>45454</v>
+      </c>
+      <c r="B134" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>-70</v>
+      </c>
+      <c r="E134" s="5">
+        <f t="shared" si="2"/>
+        <v>837</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>45458</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>-90</v>
+      </c>
+      <c r="E135" s="5">
+        <f t="shared" si="2"/>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>45461</v>
+      </c>
+      <c r="B136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>-180</v>
+      </c>
+      <c r="E136" s="5">
+        <f t="shared" si="2"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>45465</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>125</v>
+      </c>
+      <c r="E137" s="5">
+        <f t="shared" si="2"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>45468</v>
+      </c>
+      <c r="B138" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138">
         <v>-50</v>
       </c>
-      <c r="E132">
+      <c r="E138" s="5">
         <f t="shared" si="2"/>
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>45433</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="2">
-        <v>-35</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="2"/>
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>45435</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="2">
-        <v>-125</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="2"/>
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>45437</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="2">
-        <v>-40</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="2"/>
-        <v>902</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>45438</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="2">
-        <v>-30</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="2"/>
-        <v>862</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>45440</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="2">
-        <v>-100</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="2"/>
-        <v>832</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>45442</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="2">
-        <v>-160</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="2"/>
-        <v>732</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E138">
+    <sortCondition ref="A1:A138"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>